--- a/documents/外部設計書_機能名 (1).xlsx
+++ b/documents/外部設計書_機能名 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{899079F1-676C-438F-A367-84A788E15DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5022E575-10D8-4E88-B936-39F5E8ECCD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,18 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'予約(講師)'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'予約(受講者)'!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -918,14 +929,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Password</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1167,6 +1170,14 @@
     <rPh sb="5" eb="7">
       <t>コウシン</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>position</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -15523,8 +15534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45230A-E710-47D9-94CB-FFF560871DAC}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA80" sqref="AA80"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -18884,7 +18895,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E80" s="58"/>
       <c r="F80" s="58"/>
@@ -18896,12 +18907,12 @@
       <c r="J80" s="58"/>
       <c r="K80" s="60"/>
       <c r="L80" s="57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M80" s="58"/>
       <c r="N80" s="60"/>
       <c r="O80" s="57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P80" s="58"/>
       <c r="Q80" s="58"/>
@@ -18911,7 +18922,7 @@
       <c r="U80" s="57"/>
       <c r="V80" s="60"/>
       <c r="W80" s="57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="X80" s="58"/>
       <c r="Y80" s="58"/>
@@ -18938,24 +18949,24 @@
         <v>2</v>
       </c>
       <c r="D81" s="57" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="E81" s="58"/>
       <c r="F81" s="58"/>
       <c r="G81" s="56"/>
       <c r="H81" s="57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I81" s="59"/>
       <c r="J81" s="58"/>
       <c r="K81" s="60"/>
       <c r="L81" s="57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M81" s="58"/>
       <c r="N81" s="60"/>
       <c r="O81" s="57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P81" s="58"/>
       <c r="Q81" s="58"/>
@@ -18965,7 +18976,7 @@
       <c r="U81" s="57"/>
       <c r="V81" s="60"/>
       <c r="W81" s="57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="X81" s="58"/>
       <c r="Y81" s="58"/>
@@ -18992,19 +19003,19 @@
         <v>3</v>
       </c>
       <c r="D82" s="57" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="E82" s="58"/>
       <c r="F82" s="58"/>
       <c r="G82" s="56"/>
       <c r="H82" s="57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I82" s="59"/>
       <c r="J82" s="58"/>
       <c r="K82" s="60"/>
       <c r="L82" s="57" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M82" s="58"/>
       <c r="N82" s="60"/>
@@ -19017,7 +19028,7 @@
       <c r="U82" s="57"/>
       <c r="V82" s="60"/>
       <c r="W82" s="57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="X82" s="58"/>
       <c r="Y82" s="58"/>
@@ -23910,19 +23921,19 @@
         <v>1</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
@@ -23960,19 +23971,19 @@
         <v>2</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
@@ -24010,19 +24021,19 @@
         <v>3</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
@@ -24035,7 +24046,7 @@
       <c r="U89" s="16"/>
       <c r="V89" s="19"/>
       <c r="W89" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X89" s="17"/>
       <c r="Y89" s="17"/>
@@ -24062,19 +24073,19 @@
         <v>4</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
       <c r="H90" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
       <c r="L90" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
@@ -24112,13 +24123,13 @@
         <v>5</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
       <c r="H91" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
@@ -28562,19 +28573,19 @@
         <v>1</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="15"/>
       <c r="H78" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="17"/>
       <c r="K78" s="19"/>
       <c r="L78" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M78" s="17"/>
       <c r="N78" s="19"/>
@@ -28612,19 +28623,19 @@
         <v>2</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
@@ -28662,24 +28673,24 @@
         <v>3</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -28689,7 +28700,7 @@
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
@@ -28716,19 +28727,19 @@
         <v>4</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
@@ -28741,7 +28752,7 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
@@ -28768,13 +28779,13 @@
         <v>5</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -28791,7 +28802,7 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
@@ -28818,19 +28829,19 @@
         <v>6</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
@@ -33256,19 +33267,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
@@ -33306,19 +33317,19 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -33356,19 +33367,19 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
@@ -37918,19 +37929,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
@@ -37968,19 +37979,19 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -38018,24 +38029,24 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -38045,7 +38056,7 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
@@ -38072,19 +38083,19 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
@@ -38097,7 +38108,7 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
@@ -38124,13 +38135,13 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
@@ -42596,13 +42607,13 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
@@ -42619,7 +42630,7 @@
       <c r="U79" s="16"/>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
@@ -43932,7 +43943,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA85" sqref="AA85"/>
+      <selection activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -47258,19 +47269,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
@@ -47308,19 +47319,19 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -47358,13 +47369,13 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
@@ -47406,13 +47417,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -47429,7 +47440,7 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
@@ -47456,13 +47467,13 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
@@ -47479,7 +47490,7 @@
       <c r="U83" s="16"/>
       <c r="V83" s="19"/>
       <c r="W83" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
@@ -47506,24 +47517,24 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
@@ -47533,7 +47544,7 @@
       <c r="U84" s="16"/>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
@@ -47560,13 +47571,13 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
@@ -47583,7 +47594,7 @@
       <c r="U85" s="16"/>
       <c r="V85" s="19"/>
       <c r="W85" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="X85" s="17"/>
       <c r="Y85" s="17"/>
@@ -51840,19 +51851,19 @@
         <v>1</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
       <c r="G76" s="15"/>
       <c r="H76" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I76" s="18"/>
       <c r="J76" s="17"/>
       <c r="K76" s="19"/>
       <c r="L76" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M76" s="17"/>
       <c r="N76" s="19"/>
@@ -51890,19 +51901,19 @@
         <v>2</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="15"/>
       <c r="H77" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I77" s="18"/>
       <c r="J77" s="17"/>
       <c r="K77" s="19"/>
       <c r="L77" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M77" s="17"/>
       <c r="N77" s="19"/>
@@ -51940,13 +51951,13 @@
         <v>3</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="15"/>
       <c r="H78" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="17"/>
@@ -51988,13 +51999,13 @@
         <v>4</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
@@ -52011,7 +52022,7 @@
       <c r="U79" s="16"/>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
@@ -52038,24 +52049,24 @@
         <v>5</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -52065,7 +52076,7 @@
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
@@ -52092,13 +52103,13 @@
         <v>6</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
@@ -52115,7 +52126,7 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>

--- a/documents/外部設計書_機能名 (1).xlsx
+++ b/documents/外部設計書_機能名 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5022E575-10D8-4E88-B936-39F5E8ECCD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B16A45-72DA-4D19-8615-6B4D2736B1E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30570" yWindow="450" windowWidth="26220" windowHeight="14490" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="152">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1180,6 +1179,123 @@
     <t>position</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>セレクトの種類は</t>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>radioボタン、プルダウン、ラジオボタン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログイン時のエラー処理は？</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一戸チェックOK</t>
+    <rPh sb="0" eb="2">
+      <t>イチノヘ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リアクションは一定時間で消えますか？　それとも手動で消えますか？</t>
+    <rPh sb="7" eb="11">
+      <t>イッテイジカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ここで言う掲示板とは質問板一覧と解釈すればいいですか？</t>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイシャク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>気になるボタンは関心を表すボタンですか？</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンシン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ラジオボタンですか？</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>受講者にはどのような画面で通知されますか？</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント管理の画面は？</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>何ができる？</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1188,7 +1304,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1275,6 +1391,34 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1598,7 +1742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1938,6 +2082,34 @@
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10913,7 +11085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:V2"/>
     </sheetView>
   </sheetViews>
@@ -15534,8 +15706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45230A-E710-47D9-94CB-FFF560871DAC}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB55" sqref="AB55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -17947,14 +18119,16 @@
       <c r="B58" s="50"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
+      <c r="E58" s="126" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" s="126"/>
+      <c r="G58" s="126"/>
+      <c r="H58" s="126"/>
+      <c r="I58" s="126"/>
+      <c r="J58" s="126"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="126"/>
       <c r="M58" s="28"/>
       <c r="N58" s="28"/>
       <c r="O58" s="28"/>
@@ -19036,17 +19210,19 @@
       <c r="AA82" s="57"/>
       <c r="AB82" s="58"/>
       <c r="AC82" s="60"/>
-      <c r="AD82" s="57"/>
-      <c r="AE82" s="58"/>
-      <c r="AF82" s="58"/>
-      <c r="AG82" s="58"/>
-      <c r="AH82" s="58"/>
-      <c r="AI82" s="58"/>
-      <c r="AJ82" s="58"/>
-      <c r="AK82" s="58"/>
-      <c r="AL82" s="58"/>
-      <c r="AM82" s="61"/>
-      <c r="AN82" s="51"/>
+      <c r="AD82" s="122" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE82" s="123"/>
+      <c r="AF82" s="123"/>
+      <c r="AG82" s="123"/>
+      <c r="AH82" s="123"/>
+      <c r="AI82" s="123"/>
+      <c r="AJ82" s="123"/>
+      <c r="AK82" s="123"/>
+      <c r="AL82" s="123"/>
+      <c r="AM82" s="124"/>
+      <c r="AN82" s="125"/>
     </row>
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="50"/>
@@ -19078,17 +19254,19 @@
       <c r="AA83" s="57"/>
       <c r="AB83" s="58"/>
       <c r="AC83" s="60"/>
-      <c r="AD83" s="57"/>
-      <c r="AE83" s="58"/>
-      <c r="AF83" s="58"/>
-      <c r="AG83" s="58"/>
-      <c r="AH83" s="58"/>
-      <c r="AI83" s="58"/>
-      <c r="AJ83" s="58"/>
-      <c r="AK83" s="58"/>
-      <c r="AL83" s="58"/>
-      <c r="AM83" s="61"/>
-      <c r="AN83" s="51"/>
+      <c r="AD83" s="122" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE83" s="123"/>
+      <c r="AF83" s="123"/>
+      <c r="AG83" s="123"/>
+      <c r="AH83" s="123"/>
+      <c r="AI83" s="123"/>
+      <c r="AJ83" s="123"/>
+      <c r="AK83" s="123"/>
+      <c r="AL83" s="123"/>
+      <c r="AM83" s="124"/>
+      <c r="AN83" s="125"/>
     </row>
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="50"/>
@@ -20256,8 +20434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4EF61A-B259-4E39-B341-5CF46694A96C}">
   <dimension ref="A1:AN117"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="AV16" sqref="AV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22383,18 +22561,20 @@
       <c r="N51" s="27"/>
       <c r="O51" s="27"/>
       <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="27"/>
-      <c r="AA51" s="27"/>
-      <c r="AB51" s="27"/>
+      <c r="Q51" s="127" t="s">
+        <v>144</v>
+      </c>
+      <c r="R51" s="127"/>
+      <c r="S51" s="127"/>
+      <c r="T51" s="127"/>
+      <c r="U51" s="127"/>
+      <c r="V51" s="127"/>
+      <c r="W51" s="127"/>
+      <c r="X51" s="127"/>
+      <c r="Y51" s="127"/>
+      <c r="Z51" s="127"/>
+      <c r="AA51" s="127"/>
+      <c r="AB51" s="127"/>
       <c r="AC51" s="27"/>
       <c r="AD51" s="27"/>
       <c r="AE51" s="27"/>
@@ -25288,8 +25468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18FE23E-D123-4F62-A767-709AFB1ABBF9}">
   <dimension ref="A1:AN108"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64:L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27876,18 +28056,20 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
+      <c r="D62" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="129"/>
+      <c r="F62" s="129"/>
+      <c r="G62" s="129"/>
+      <c r="H62" s="129"/>
+      <c r="I62" s="129"/>
+      <c r="J62" s="129"/>
+      <c r="K62" s="129"/>
+      <c r="L62" s="129"/>
+      <c r="M62" s="129"/>
+      <c r="N62" s="129"/>
+      <c r="O62" s="129"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
@@ -27960,15 +28142,17 @@
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
+      <c r="D64" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" s="129"/>
+      <c r="F64" s="129"/>
+      <c r="G64" s="129"/>
+      <c r="H64" s="129"/>
+      <c r="I64" s="129"/>
+      <c r="J64" s="129"/>
+      <c r="K64" s="129"/>
+      <c r="L64" s="129"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
@@ -29954,8 +30138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446F792A-F08D-46CD-8CCF-AF5C5DC64D09}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79:M80"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -30083,7 +30267,9 @@
       </c>
       <c r="L3" s="82"/>
       <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
+      <c r="N3" s="84" t="s">
+        <v>143</v>
+      </c>
       <c r="O3" s="85"/>
       <c r="P3" s="85"/>
       <c r="Q3" s="85"/>
@@ -34618,8 +34804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5D52B1-0029-4A28-B875-E4639FDA348F}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="W83" sqref="W83"/>
+    <sheetView topLeftCell="A16" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="AB46" sqref="AB46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -34747,7 +34933,7 @@
       </c>
       <c r="L3" s="82"/>
       <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
+      <c r="N3" s="130"/>
       <c r="O3" s="85"/>
       <c r="P3" s="85"/>
       <c r="Q3" s="85"/>
@@ -36738,11 +36924,11 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
+      <c r="P51" s="129"/>
+      <c r="Q51" s="129"/>
+      <c r="R51" s="129"/>
+      <c r="S51" s="129"/>
+      <c r="T51" s="129"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
@@ -36781,11 +36967,13 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
+      <c r="P52" s="129" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q52" s="129"/>
+      <c r="R52" s="129"/>
+      <c r="S52" s="129"/>
+      <c r="T52" s="129"/>
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
@@ -39300,8 +39488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C46F7C8-AC1D-4E5E-89A0-4D67C6407E34}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="W79" sqref="W79"/>
+    <sheetView topLeftCell="A21" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AA49" sqref="AA49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41247,14 +41435,16 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
+      <c r="M47" s="129" t="s">
+        <v>148</v>
+      </c>
+      <c r="N47" s="129"/>
+      <c r="O47" s="129"/>
+      <c r="P47" s="129"/>
+      <c r="Q47" s="129"/>
+      <c r="R47" s="129"/>
+      <c r="S47" s="129"/>
+      <c r="T47" s="129"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
@@ -43942,8 +44132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9362E3-A890-44BF-8B7B-FC0697EE9BE7}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N96" sqref="N96"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC55" sqref="AC55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -46326,16 +46516,20 @@
       <c r="M57" s="64"/>
       <c r="N57" s="64"/>
       <c r="O57" s="64"/>
-      <c r="P57" s="64"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
+      <c r="P57" s="131" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q57" s="127"/>
+      <c r="R57" s="127"/>
+      <c r="S57" s="127"/>
+      <c r="T57" s="127"/>
       <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
+      <c r="V57" s="127" t="s">
+        <v>150</v>
+      </c>
+      <c r="W57" s="127"/>
+      <c r="X57" s="129"/>
+      <c r="Y57" s="129"/>
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
@@ -48654,8 +48848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4FDBAE-6220-4BAA-805C-58AC60A2548D}">
   <dimension ref="A1:AN106"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -48783,7 +48977,9 @@
       </c>
       <c r="L3" s="82"/>
       <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
+      <c r="N3" s="130" t="s">
+        <v>151</v>
+      </c>
       <c r="O3" s="85"/>
       <c r="P3" s="85"/>
       <c r="Q3" s="85"/>

--- a/documents/外部設計書_機能名 (1).xlsx
+++ b/documents/外部設計書_機能名 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B16A45-72DA-4D19-8615-6B4D2736B1E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2619F9F6-7BA7-45C0-8417-63BB43632D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30570" yWindow="450" windowWidth="26220" windowHeight="14490" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1293,7 +1293,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>OK</t>
+    <t>OKです。</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1927,6 +1927,31 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2083,33 +2108,8 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11095,146 +11095,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80" t="s">
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="94" t="s">
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="88"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="97"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="89" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="91" t="s">
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="93"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="102"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="95"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -15716,152 +15716,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="104" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="105" t="s">
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105" t="s">
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105" t="s">
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="121" t="s">
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="113"/>
+      <c r="AG1" s="130"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="121"/>
+      <c r="AJ1" s="121"/>
+      <c r="AK1" s="121"/>
+      <c r="AL1" s="121"/>
+      <c r="AM1" s="121"/>
+      <c r="AN1" s="122"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="114" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115" t="s">
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="116">
+      <c r="X2" s="124"/>
+      <c r="Y2" s="125">
         <v>44351</v>
       </c>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="117" t="s">
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="119"/>
-      <c r="AJ2" s="119"/>
-      <c r="AK2" s="119"/>
-      <c r="AL2" s="119"/>
-      <c r="AM2" s="119"/>
-      <c r="AN2" s="120"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="127"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="129"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="106" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="107"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="110"/>
-      <c r="AI3" s="110"/>
-      <c r="AJ3" s="110"/>
-      <c r="AK3" s="110"/>
-      <c r="AL3" s="110"/>
-      <c r="AM3" s="110"/>
-      <c r="AN3" s="111"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="119"/>
+      <c r="AK3" s="119"/>
+      <c r="AL3" s="119"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="120"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B4" s="46"/>
@@ -18119,16 +18119,16 @@
       <c r="B58" s="50"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
-      <c r="E58" s="126" t="s">
+      <c r="E58" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="F58" s="126"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="126"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="126"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
       <c r="M58" s="28"/>
       <c r="N58" s="28"/>
       <c r="O58" s="28"/>
@@ -19210,19 +19210,19 @@
       <c r="AA82" s="57"/>
       <c r="AB82" s="58"/>
       <c r="AC82" s="60"/>
-      <c r="AD82" s="122" t="s">
+      <c r="AD82" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="AE82" s="123"/>
-      <c r="AF82" s="123"/>
-      <c r="AG82" s="123"/>
-      <c r="AH82" s="123"/>
-      <c r="AI82" s="123"/>
-      <c r="AJ82" s="123"/>
-      <c r="AK82" s="123"/>
-      <c r="AL82" s="123"/>
-      <c r="AM82" s="124"/>
-      <c r="AN82" s="125"/>
+      <c r="AE82" s="71"/>
+      <c r="AF82" s="71"/>
+      <c r="AG82" s="71"/>
+      <c r="AH82" s="71"/>
+      <c r="AI82" s="71"/>
+      <c r="AJ82" s="71"/>
+      <c r="AK82" s="71"/>
+      <c r="AL82" s="71"/>
+      <c r="AM82" s="72"/>
+      <c r="AN82" s="73"/>
     </row>
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="50"/>
@@ -19254,19 +19254,19 @@
       <c r="AA83" s="57"/>
       <c r="AB83" s="58"/>
       <c r="AC83" s="60"/>
-      <c r="AD83" s="122" t="s">
+      <c r="AD83" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="AE83" s="123"/>
-      <c r="AF83" s="123"/>
-      <c r="AG83" s="123"/>
-      <c r="AH83" s="123"/>
-      <c r="AI83" s="123"/>
-      <c r="AJ83" s="123"/>
-      <c r="AK83" s="123"/>
-      <c r="AL83" s="123"/>
-      <c r="AM83" s="124"/>
-      <c r="AN83" s="125"/>
+      <c r="AE83" s="71"/>
+      <c r="AF83" s="71"/>
+      <c r="AG83" s="71"/>
+      <c r="AH83" s="71"/>
+      <c r="AI83" s="71"/>
+      <c r="AJ83" s="71"/>
+      <c r="AK83" s="71"/>
+      <c r="AL83" s="71"/>
+      <c r="AM83" s="72"/>
+      <c r="AN83" s="73"/>
     </row>
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="50"/>
@@ -20444,152 +20444,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80" t="s">
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80" t="s">
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="105" t="s">
+      <c r="X1" s="89"/>
+      <c r="Y1" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="94" t="s">
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="88"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="97"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="89" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="116">
+      <c r="X2" s="99"/>
+      <c r="Y2" s="125">
         <v>44351</v>
       </c>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="91" t="s">
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="93"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="102"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="95"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -22561,20 +22561,20 @@
       <c r="N51" s="27"/>
       <c r="O51" s="27"/>
       <c r="P51" s="27"/>
-      <c r="Q51" s="127" t="s">
+      <c r="Q51" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="R51" s="127"/>
-      <c r="S51" s="127"/>
-      <c r="T51" s="127"/>
-      <c r="U51" s="127"/>
-      <c r="V51" s="127"/>
-      <c r="W51" s="127"/>
-      <c r="X51" s="127"/>
-      <c r="Y51" s="127"/>
-      <c r="Z51" s="127"/>
-      <c r="AA51" s="127"/>
-      <c r="AB51" s="127"/>
+      <c r="R51" s="75"/>
+      <c r="S51" s="75"/>
+      <c r="T51" s="75"/>
+      <c r="U51" s="75"/>
+      <c r="V51" s="75"/>
+      <c r="W51" s="75"/>
+      <c r="X51" s="75"/>
+      <c r="Y51" s="75"/>
+      <c r="Z51" s="75"/>
+      <c r="AA51" s="75"/>
+      <c r="AB51" s="75"/>
       <c r="AC51" s="27"/>
       <c r="AD51" s="27"/>
       <c r="AE51" s="27"/>
@@ -25478,152 +25478,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80" t="s">
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80" t="s">
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="105" t="s">
+      <c r="X1" s="89"/>
+      <c r="Y1" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="94" t="s">
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="88"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="97"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="89" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="116">
+      <c r="X2" s="99"/>
+      <c r="Y2" s="125">
         <v>44351</v>
       </c>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="91" t="s">
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="93"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="102"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="95"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -28056,20 +28056,20 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="10"/>
-      <c r="D62" s="128" t="s">
+      <c r="D62" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="E62" s="129"/>
-      <c r="F62" s="129"/>
-      <c r="G62" s="129"/>
-      <c r="H62" s="129"/>
-      <c r="I62" s="129"/>
-      <c r="J62" s="129"/>
-      <c r="K62" s="129"/>
-      <c r="L62" s="129"/>
-      <c r="M62" s="129"/>
-      <c r="N62" s="129"/>
-      <c r="O62" s="129"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="77"/>
+      <c r="N62" s="77"/>
+      <c r="O62" s="77"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
@@ -28142,17 +28142,17 @@
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="10"/>
-      <c r="D64" s="128" t="s">
+      <c r="D64" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="E64" s="129"/>
-      <c r="F64" s="129"/>
-      <c r="G64" s="129"/>
-      <c r="H64" s="129"/>
-      <c r="I64" s="129"/>
-      <c r="J64" s="129"/>
-      <c r="K64" s="129"/>
-      <c r="L64" s="129"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="77"/>
+      <c r="K64" s="77"/>
+      <c r="L64" s="77"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
@@ -30148,154 +30148,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80" t="s">
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80" t="s">
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="105" t="s">
+      <c r="X1" s="89"/>
+      <c r="Y1" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="94" t="s">
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="88"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="97"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="89" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="116">
+      <c r="X2" s="99"/>
+      <c r="Y2" s="125">
         <v>44351</v>
       </c>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="91" t="s">
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="93"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="102"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84" t="s">
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="95"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -34814,152 +34814,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80" t="s">
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80" t="s">
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="105" t="s">
+      <c r="X1" s="89"/>
+      <c r="Y1" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="94" t="s">
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="88"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="97"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="89" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="116">
+      <c r="X2" s="99"/>
+      <c r="Y2" s="125">
         <v>44351</v>
       </c>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="91" t="s">
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="93"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="102"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="95"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -36924,11 +36924,11 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
-      <c r="P51" s="129"/>
-      <c r="Q51" s="129"/>
-      <c r="R51" s="129"/>
-      <c r="S51" s="129"/>
-      <c r="T51" s="129"/>
+      <c r="P51" s="77"/>
+      <c r="Q51" s="77"/>
+      <c r="R51" s="77"/>
+      <c r="S51" s="77"/>
+      <c r="T51" s="77"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
@@ -36967,13 +36967,13 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
-      <c r="P52" s="129" t="s">
+      <c r="P52" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="Q52" s="129"/>
-      <c r="R52" s="129"/>
-      <c r="S52" s="129"/>
-      <c r="T52" s="129"/>
+      <c r="Q52" s="77"/>
+      <c r="R52" s="77"/>
+      <c r="S52" s="77"/>
+      <c r="T52" s="77"/>
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
@@ -39498,152 +39498,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80" t="s">
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80" t="s">
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="105" t="s">
+      <c r="X1" s="89"/>
+      <c r="Y1" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="94" t="s">
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="88"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="97"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="89" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="116">
+      <c r="X2" s="99"/>
+      <c r="Y2" s="125">
         <v>44351</v>
       </c>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="91" t="s">
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="93"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="102"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="95"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -41435,16 +41435,16 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
-      <c r="M47" s="129" t="s">
+      <c r="M47" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="N47" s="129"/>
-      <c r="O47" s="129"/>
-      <c r="P47" s="129"/>
-      <c r="Q47" s="129"/>
-      <c r="R47" s="129"/>
-      <c r="S47" s="129"/>
-      <c r="T47" s="129"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="77"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="77"/>
+      <c r="R47" s="77"/>
+      <c r="S47" s="77"/>
+      <c r="T47" s="77"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
@@ -44142,152 +44142,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80" t="s">
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80" t="s">
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="105" t="s">
+      <c r="X1" s="89"/>
+      <c r="Y1" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="94" t="s">
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="88"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="97"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="89" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="116">
+      <c r="X2" s="99"/>
+      <c r="Y2" s="125">
         <v>44351</v>
       </c>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="91" t="s">
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="93"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="102"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="95"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -46516,20 +46516,20 @@
       <c r="M57" s="64"/>
       <c r="N57" s="64"/>
       <c r="O57" s="64"/>
-      <c r="P57" s="131" t="s">
+      <c r="P57" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="Q57" s="127"/>
-      <c r="R57" s="127"/>
-      <c r="S57" s="127"/>
-      <c r="T57" s="127"/>
+      <c r="Q57" s="75"/>
+      <c r="R57" s="75"/>
+      <c r="S57" s="75"/>
+      <c r="T57" s="75"/>
       <c r="U57" s="27"/>
-      <c r="V57" s="127" t="s">
+      <c r="V57" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="W57" s="127"/>
-      <c r="X57" s="129"/>
-      <c r="Y57" s="129"/>
+      <c r="W57" s="75"/>
+      <c r="X57" s="77"/>
+      <c r="Y57" s="77"/>
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
@@ -48849,7 +48849,7 @@
   <dimension ref="A1:AN106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:AN3"/>
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -48858,154 +48858,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80" t="s">
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80" t="s">
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="105" t="s">
+      <c r="X1" s="89"/>
+      <c r="Y1" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="94" t="s">
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="88"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="97"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="89" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="116">
+      <c r="X2" s="99"/>
+      <c r="Y2" s="125">
         <v>44351</v>
       </c>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="91" t="s">
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="93"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="102"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="130" t="s">
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="95"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
